--- a/MHS Chapters.xlsx
+++ b/MHS Chapters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A81B80D-EAD0-A347-92F0-79039CE9CC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E182D6B2-2247-8645-B5D6-0F24B05BC79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-1360" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4491,7 +4491,7 @@
   <dimension ref="A1:G594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/MHS Chapters.xlsx
+++ b/MHS Chapters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E182D6B2-2247-8645-B5D6-0F24B05BC79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB2AE6C-0253-7F41-9ED9-E8075DCBF22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-1360" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4491,7 +4491,7 @@
   <dimension ref="A1:G594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/MHS Chapters.xlsx
+++ b/MHS Chapters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB2AE6C-0253-7F41-9ED9-E8075DCBF22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7209E00B-9369-F546-98EC-840A1BF4ACDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1360" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-3220" windowWidth="38400" windowHeight="24000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4491,7 +4491,7 @@
   <dimension ref="A1:G594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/MHS Chapters.xlsx
+++ b/MHS Chapters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7209E00B-9369-F546-98EC-840A1BF4ACDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410DAC75-7378-FF48-A79B-A80E9528C52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3220" windowWidth="38400" windowHeight="24000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-1360" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4491,7 +4491,7 @@
   <dimension ref="A1:G594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/MHS Chapters.xlsx
+++ b/MHS Chapters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410DAC75-7378-FF48-A79B-A80E9528C52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDE4A19-C86F-A449-B326-ECBDFD775538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-1360" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4491,7 +4491,7 @@
   <dimension ref="A1:G594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/MHS Chapters.xlsx
+++ b/MHS Chapters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDE4A19-C86F-A449-B326-ECBDFD775538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06811919-1C1D-ED40-8F85-1502D4F3AA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-1360" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4491,7 +4491,7 @@
   <dimension ref="A1:G594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
